--- a/doc/image collage coordinates.xlsx
+++ b/doc/image collage coordinates.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12270"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="19440" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -519,8 +519,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -640,7 +640,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -675,7 +674,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -851,16 +849,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N119" sqref="N119"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -883,7 +882,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -900,7 +899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -917,7 +916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -934,7 +933,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -951,12 +950,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="D8" t="s">
         <v>16</v>
       </c>
@@ -973,7 +972,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="D9" t="s">
         <v>18</v>
       </c>
@@ -990,7 +989,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="D10" t="s">
         <v>20</v>
       </c>
@@ -1007,7 +1006,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="D11" t="s">
         <v>22</v>
       </c>
@@ -1024,7 +1023,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1041,7 +1040,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1058,7 +1057,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1075,7 +1074,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1092,7 +1091,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -1109,12 +1108,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="D21" t="s">
         <v>34</v>
       </c>
@@ -1131,7 +1130,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="D22" t="s">
         <v>36</v>
       </c>
@@ -1148,7 +1147,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1165,7 +1164,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -1179,12 +1178,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="D28" t="s">
         <v>43</v>
       </c>
@@ -1201,7 +1200,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="D29" t="s">
         <v>45</v>
       </c>
@@ -1218,12 +1217,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
       <c r="D33" t="s">
         <v>48</v>
       </c>
@@ -1240,7 +1239,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="D34" t="s">
         <v>50</v>
       </c>
@@ -1254,7 +1253,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="D35" t="s">
         <v>52</v>
       </c>
@@ -1268,7 +1267,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14">
       <c r="D36" t="s">
         <v>54</v>
       </c>
@@ -1282,7 +1281,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14">
       <c r="D37" t="s">
         <v>55</v>
       </c>
@@ -1296,17 +1295,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="N38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14">
       <c r="D41" t="s">
         <v>59</v>
       </c>
@@ -1320,7 +1319,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14">
       <c r="D42" t="s">
         <v>61</v>
       </c>
@@ -1334,7 +1333,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14">
       <c r="D43" t="s">
         <v>63</v>
       </c>
@@ -1348,7 +1347,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14">
       <c r="D44" t="s">
         <v>64</v>
       </c>
@@ -1362,7 +1361,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14">
       <c r="D45" t="s">
         <v>67</v>
       </c>
@@ -1376,7 +1375,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14">
       <c r="D46" t="s">
         <v>68</v>
       </c>
@@ -1390,7 +1389,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14">
       <c r="D47" t="s">
         <v>69</v>
       </c>
@@ -1404,7 +1403,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14">
       <c r="D48" t="s">
         <v>71</v>
       </c>
@@ -1418,7 +1417,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="D49" t="s">
         <v>72</v>
       </c>
@@ -1432,7 +1431,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="D50" t="s">
         <v>74</v>
       </c>
@@ -1446,7 +1445,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="D51" t="s">
         <v>76</v>
       </c>
@@ -1460,7 +1459,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="D52" t="s">
         <v>78</v>
       </c>
@@ -1474,7 +1473,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="D53" t="s">
         <v>84</v>
       </c>
@@ -1488,12 +1487,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="D57" t="s">
         <v>81</v>
       </c>
@@ -1507,7 +1506,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="D58" t="s">
         <v>83</v>
       </c>
@@ -1521,7 +1520,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
         <v>86</v>
       </c>
@@ -1541,7 +1540,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
         <v>88</v>
       </c>
@@ -1561,7 +1560,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
         <v>90</v>
       </c>
@@ -1581,7 +1580,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
         <v>92</v>
       </c>
@@ -1601,7 +1600,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
         <v>93</v>
       </c>
@@ -1621,7 +1620,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>95</v>
       </c>
@@ -1641,7 +1640,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>98</v>
       </c>
@@ -1658,7 +1657,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>97</v>
       </c>
@@ -1675,7 +1674,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
         <v>100</v>
       </c>
@@ -1692,7 +1691,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
         <v>102</v>
       </c>
@@ -1709,7 +1708,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
         <v>104</v>
       </c>
@@ -1726,7 +1725,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
         <v>106</v>
       </c>
@@ -1743,7 +1742,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11">
       <c r="A74" t="s">
         <v>107</v>
       </c>
@@ -1763,7 +1762,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11">
       <c r="A75" t="s">
         <v>108</v>
       </c>
@@ -1783,7 +1782,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11">
       <c r="A76" t="s">
         <v>109</v>
       </c>
@@ -1803,7 +1802,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11">
       <c r="A77" t="s">
         <v>110</v>
       </c>
@@ -1823,12 +1822,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11">
       <c r="A80" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11">
       <c r="D82" t="s">
         <v>112</v>
       </c>
@@ -1842,7 +1841,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11">
       <c r="D83" t="s">
         <v>113</v>
       </c>
@@ -1856,7 +1855,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11">
       <c r="D84" t="s">
         <v>114</v>
       </c>
@@ -1870,7 +1869,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11">
       <c r="D85" t="s">
         <v>115</v>
       </c>
@@ -1884,7 +1883,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11">
       <c r="D86" t="s">
         <v>116</v>
       </c>
@@ -1898,7 +1897,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11">
       <c r="D87" t="s">
         <v>117</v>
       </c>
@@ -1912,7 +1911,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11">
       <c r="D88" t="s">
         <v>118</v>
       </c>
@@ -1926,7 +1925,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11">
       <c r="D89" t="s">
         <v>119</v>
       </c>
@@ -1940,7 +1939,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11">
       <c r="D90" t="s">
         <v>120</v>
       </c>
@@ -1954,7 +1953,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11">
       <c r="D91" t="s">
         <v>121</v>
       </c>
@@ -1968,7 +1967,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11">
       <c r="D92" t="s">
         <v>122</v>
       </c>
@@ -1982,12 +1981,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11">
       <c r="A94" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11">
       <c r="D96" t="s">
         <v>134</v>
       </c>
@@ -2001,7 +2000,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11">
       <c r="D97" t="s">
         <v>136</v>
       </c>
@@ -2015,7 +2014,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11">
       <c r="D98" t="s">
         <v>138</v>
       </c>
@@ -2029,7 +2028,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11">
       <c r="D99" t="s">
         <v>140</v>
       </c>
@@ -2043,7 +2042,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11">
       <c r="D100" t="s">
         <v>139</v>
       </c>
@@ -2057,7 +2056,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11">
       <c r="D101" t="s">
         <v>141</v>
       </c>
@@ -2071,7 +2070,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11">
       <c r="D102" t="s">
         <v>61</v>
       </c>
@@ -2085,7 +2084,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11">
       <c r="D103" t="s">
         <v>72</v>
       </c>
@@ -2099,7 +2098,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11">
       <c r="D104" t="s">
         <v>71</v>
       </c>
@@ -2113,7 +2112,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11">
       <c r="D105" t="s">
         <v>69</v>
       </c>
@@ -2127,7 +2126,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11">
       <c r="A108" t="s">
         <v>149</v>
       </c>
@@ -2135,7 +2134,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11">
       <c r="A109" t="s">
         <v>148</v>
       </c>
@@ -2143,7 +2142,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11">
       <c r="A110" t="s">
         <v>147</v>
       </c>
@@ -2151,7 +2150,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11">
       <c r="A111" t="s">
         <v>151</v>
       </c>
@@ -2159,7 +2158,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11">
       <c r="A112" t="s">
         <v>153</v>
       </c>
@@ -2167,7 +2166,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11">
       <c r="A113" t="s">
         <v>156</v>
       </c>
@@ -2175,7 +2174,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11">
       <c r="A115" t="s">
         <v>157</v>
       </c>
@@ -2183,7 +2182,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11">
       <c r="A116" t="s">
         <v>159</v>
       </c>
@@ -2200,12 +2199,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11">
       <c r="A117" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11">
       <c r="D119" t="s">
         <v>162</v>
       </c>
@@ -2222,7 +2221,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11">
       <c r="D120" t="s">
         <v>164</v>
       </c>
@@ -2245,24 +2244,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/image collage coordinates.xlsx
+++ b/doc/image collage coordinates.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -276,36 +276,18 @@
     <t>40x33</t>
   </si>
   <si>
-    <t>on_board_beach_animated_1.png</t>
-  </si>
-  <si>
     <t>68x92</t>
   </si>
   <si>
-    <t>on_board_beach_animated_2.png</t>
-  </si>
-  <si>
     <t>46x46</t>
   </si>
   <si>
-    <t>on_board_cave_animated_1.png</t>
-  </si>
-  <si>
     <t>52x92</t>
   </si>
   <si>
-    <t>on_board_cave_animated_2.png</t>
-  </si>
-  <si>
-    <t>on_board_forest_animated_1.png</t>
-  </si>
-  <si>
     <t>70x92</t>
   </si>
   <si>
-    <t>on_board_forest_animated_2.png</t>
-  </si>
-  <si>
     <t>466x115</t>
   </si>
   <si>
@@ -489,31 +471,49 @@
     <t>background_leaderboard_rank.png</t>
   </si>
   <si>
-    <t>talking_heads_base.png</t>
-  </si>
-  <si>
     <t>200x242</t>
   </si>
   <si>
-    <t>talking_heads_mouth.png</t>
-  </si>
-  <si>
     <t>120x123</t>
   </si>
   <si>
-    <t>talking_heads_eyes.png</t>
-  </si>
-  <si>
-    <t>right_head_eyes</t>
-  </si>
-  <si>
     <t>46x21</t>
   </si>
   <si>
-    <t>left_head_eyes</t>
-  </si>
-  <si>
     <t>37x21</t>
+  </si>
+  <si>
+    <t>game-beach-jump-strips.png</t>
+  </si>
+  <si>
+    <t>game-beach-rollover-strips.png</t>
+  </si>
+  <si>
+    <t>game-cave-jump-strips.png</t>
+  </si>
+  <si>
+    <t>game-cave-rollover-strips.png</t>
+  </si>
+  <si>
+    <t>game-forest-jump-strips.png</t>
+  </si>
+  <si>
+    <t>game-forest-rollover-strips.png</t>
+  </si>
+  <si>
+    <t>collage/heads-eyes-strip.png</t>
+  </si>
+  <si>
+    <t>heads-base.png</t>
+  </si>
+  <si>
+    <t>heads-mouth-strip.png</t>
+  </si>
+  <si>
+    <t>heads-right-eyes-strip.png</t>
+  </si>
+  <si>
+    <t>heads-left-eyes-strip.png</t>
   </si>
 </sst>
 </file>
@@ -850,11 +850,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N120"/>
+  <dimension ref="A1:N122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -1537,12 +1537,12 @@
         <v>92</v>
       </c>
       <c r="K60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -1557,12 +1557,12 @@
         <v>46</v>
       </c>
       <c r="K61" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -1577,12 +1577,12 @@
         <v>92</v>
       </c>
       <c r="K62" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -1597,12 +1597,12 @@
         <v>46</v>
       </c>
       <c r="K63" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -1617,12 +1617,12 @@
         <v>92</v>
       </c>
       <c r="K64" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -1637,12 +1637,12 @@
         <v>46</v>
       </c>
       <c r="K65" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -1654,12 +1654,12 @@
         <v>58</v>
       </c>
       <c r="K67" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -1671,12 +1671,12 @@
         <v>122</v>
       </c>
       <c r="K68" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -1688,12 +1688,12 @@
         <v>33</v>
       </c>
       <c r="K69" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -1705,12 +1705,12 @@
         <v>18</v>
       </c>
       <c r="K70" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -1722,12 +1722,12 @@
         <v>30</v>
       </c>
       <c r="K71" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -1739,12 +1739,12 @@
         <v>46</v>
       </c>
       <c r="K72" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -1759,12 +1759,12 @@
         <v>46</v>
       </c>
       <c r="K74" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -1779,12 +1779,12 @@
         <v>46</v>
       </c>
       <c r="K75" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -1799,12 +1799,12 @@
         <v>46</v>
       </c>
       <c r="K76" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -1819,17 +1819,17 @@
         <v>46</v>
       </c>
       <c r="K77" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="D82" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -1838,12 +1838,12 @@
         <v>0</v>
       </c>
       <c r="K82" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="D83" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -1852,12 +1852,12 @@
         <v>29</v>
       </c>
       <c r="K83" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="D84" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -1866,12 +1866,12 @@
         <v>75</v>
       </c>
       <c r="K84" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="D85" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -1880,12 +1880,12 @@
         <v>117</v>
       </c>
       <c r="K85" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="D86" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -1894,12 +1894,12 @@
         <v>174</v>
       </c>
       <c r="K86" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="D87" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -1908,12 +1908,12 @@
         <v>201</v>
       </c>
       <c r="K87" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="D88" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -1922,12 +1922,12 @@
         <v>228</v>
       </c>
       <c r="K88" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="D89" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -1936,12 +1936,12 @@
         <v>269</v>
       </c>
       <c r="K89" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="D90" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -1950,12 +1950,12 @@
         <v>312</v>
       </c>
       <c r="K90" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="D91" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -1964,12 +1964,12 @@
         <v>367</v>
       </c>
       <c r="K91" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="D92" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -1978,17 +1978,17 @@
         <v>397</v>
       </c>
       <c r="K92" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="D96" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -1997,12 +1997,12 @@
         <v>0</v>
       </c>
       <c r="K96" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="D97" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G97">
         <v>49</v>
@@ -2011,12 +2011,12 @@
         <v>0</v>
       </c>
       <c r="K97" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="D98" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G98">
         <v>98</v>
@@ -2025,12 +2025,12 @@
         <v>0</v>
       </c>
       <c r="K98" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="D99" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G99">
         <v>131</v>
@@ -2039,12 +2039,12 @@
         <v>0</v>
       </c>
       <c r="K99" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="D100" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G100">
         <v>164</v>
@@ -2053,12 +2053,12 @@
         <v>0</v>
       </c>
       <c r="K100" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="D101" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G101">
         <v>197</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="K101" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="K102" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="K103" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -2109,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="K104" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -2123,68 +2123,68 @@
         <v>0</v>
       </c>
       <c r="K105" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="K108" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="K109" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="K110" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="K111" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="K112" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="K113" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
       <c r="A115" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K115" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -2196,17 +2196,17 @@
         <v>60</v>
       </c>
       <c r="K116" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
       <c r="A117" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:12">
       <c r="D119" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -2218,12 +2218,12 @@
         <v>46</v>
       </c>
       <c r="K119" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
       <c r="D120" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -2235,7 +2235,45 @@
         <v>37</v>
       </c>
       <c r="K120" t="s">
-        <v>165</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122">
+        <v>0</v>
+      </c>
+      <c r="B122">
+        <v>46</v>
+      </c>
+      <c r="C122">
+        <v>92</v>
+      </c>
+      <c r="D122">
+        <v>138</v>
+      </c>
+      <c r="E122">
+        <v>184</v>
+      </c>
+      <c r="F122">
+        <v>230</v>
+      </c>
+      <c r="G122">
+        <v>276</v>
+      </c>
+      <c r="H122">
+        <v>322</v>
+      </c>
+      <c r="I122">
+        <v>368</v>
+      </c>
+      <c r="J122">
+        <v>414</v>
+      </c>
+      <c r="K122">
+        <v>460</v>
+      </c>
+      <c r="L122">
+        <v>506</v>
       </c>
     </row>
   </sheetData>

--- a/doc/image collage coordinates.xlsx
+++ b/doc/image collage coordinates.xlsx
@@ -141,9 +141,6 @@
     <t>52x514</t>
   </si>
   <si>
-    <t>map_level_ui_static_2.png</t>
-  </si>
-  <si>
     <t>map_level_ui_static_1.png</t>
   </si>
   <si>
@@ -514,6 +511,9 @@
   </si>
   <si>
     <t>heads-left-eyes-strip.png</t>
+  </si>
+  <si>
+    <t>game-powerup.png</t>
   </si>
 </sst>
 </file>
@@ -850,11 +850,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N122"/>
+  <dimension ref="A1:N125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D120" sqref="D120"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1166,7 +1166,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1180,12 +1180,12 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="D28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1197,12 +1197,12 @@
         <v>35</v>
       </c>
       <c r="K28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="D29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1214,17 +1214,17 @@
         <v>19</v>
       </c>
       <c r="K29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="D33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1236,12 +1236,12 @@
         <v>40</v>
       </c>
       <c r="K33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="D34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G34">
         <v>80</v>
@@ -1250,12 +1250,12 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="D35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G35">
         <v>120</v>
@@ -1264,12 +1264,12 @@
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="D36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G36">
         <v>149</v>
@@ -1278,12 +1278,12 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="D37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G37">
         <v>173</v>
@@ -1292,36 +1292,36 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="N38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="D41" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
         <v>59</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="K41" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="D42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G42">
         <v>19</v>
@@ -1330,12 +1330,12 @@
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="D43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G43">
         <v>19</v>
@@ -1344,12 +1344,12 @@
         <v>26</v>
       </c>
       <c r="K43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="D44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G44">
         <v>19</v>
@@ -1358,12 +1358,12 @@
         <v>50</v>
       </c>
       <c r="K44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="D45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G45">
         <v>19</v>
@@ -1372,12 +1372,12 @@
         <v>74</v>
       </c>
       <c r="K45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="D46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G46">
         <v>19</v>
@@ -1386,12 +1386,12 @@
         <v>98</v>
       </c>
       <c r="K46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="D47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G47">
         <v>19</v>
@@ -1400,12 +1400,12 @@
         <v>122</v>
       </c>
       <c r="K47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="D48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>19</v>
@@ -1414,12 +1414,12 @@
         <v>147</v>
       </c>
       <c r="K48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="D49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G49">
         <v>19</v>
@@ -1428,12 +1428,12 @@
         <v>172</v>
       </c>
       <c r="K49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="D50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G50">
         <v>57</v>
@@ -1442,12 +1442,12 @@
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="D51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G51">
         <v>57</v>
@@ -1456,12 +1456,12 @@
         <v>56</v>
       </c>
       <c r="K51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="D52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G52">
         <v>57</v>
@@ -1470,12 +1470,12 @@
         <v>108</v>
       </c>
       <c r="K52" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="D53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G53">
         <v>57</v>
@@ -1484,31 +1484,31 @@
         <v>154</v>
       </c>
       <c r="K53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="D57" t="s">
+        <v>80</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="K57" t="s">
         <v>81</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="K57" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="D58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G58">
         <v>150</v>
@@ -1517,12 +1517,12 @@
         <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -1537,12 +1537,12 @@
         <v>92</v>
       </c>
       <c r="K60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -1557,12 +1557,12 @@
         <v>46</v>
       </c>
       <c r="K61" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -1577,12 +1577,12 @@
         <v>92</v>
       </c>
       <c r="K62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -1597,12 +1597,12 @@
         <v>46</v>
       </c>
       <c r="K63" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -1617,12 +1617,12 @@
         <v>92</v>
       </c>
       <c r="K64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -1637,12 +1637,12 @@
         <v>46</v>
       </c>
       <c r="K65" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -1654,12 +1654,12 @@
         <v>58</v>
       </c>
       <c r="K67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -1671,12 +1671,12 @@
         <v>122</v>
       </c>
       <c r="K68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -1688,12 +1688,12 @@
         <v>33</v>
       </c>
       <c r="K69" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -1705,12 +1705,12 @@
         <v>18</v>
       </c>
       <c r="K70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -1722,12 +1722,12 @@
         <v>30</v>
       </c>
       <c r="K71" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -1739,12 +1739,12 @@
         <v>46</v>
       </c>
       <c r="K72" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -1759,12 +1759,12 @@
         <v>46</v>
       </c>
       <c r="K74" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -1779,12 +1779,12 @@
         <v>46</v>
       </c>
       <c r="K75" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -1799,12 +1799,12 @@
         <v>46</v>
       </c>
       <c r="K76" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -1819,17 +1819,17 @@
         <v>46</v>
       </c>
       <c r="K77" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="D82" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -1838,12 +1838,12 @@
         <v>0</v>
       </c>
       <c r="K82" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="D83" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -1852,12 +1852,12 @@
         <v>29</v>
       </c>
       <c r="K83" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="D84" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -1866,12 +1866,12 @@
         <v>75</v>
       </c>
       <c r="K84" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="D85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -1880,12 +1880,12 @@
         <v>117</v>
       </c>
       <c r="K85" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="D86" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -1894,12 +1894,12 @@
         <v>174</v>
       </c>
       <c r="K86" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="D87" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -1908,12 +1908,12 @@
         <v>201</v>
       </c>
       <c r="K87" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="D88" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -1922,12 +1922,12 @@
         <v>228</v>
       </c>
       <c r="K88" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="D89" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -1936,12 +1936,12 @@
         <v>269</v>
       </c>
       <c r="K89" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="D90" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -1950,12 +1950,12 @@
         <v>312</v>
       </c>
       <c r="K90" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="D91" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -1964,12 +1964,12 @@
         <v>367</v>
       </c>
       <c r="K91" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="D92" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -1978,31 +1978,31 @@
         <v>397</v>
       </c>
       <c r="K92" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="D96" t="s">
+        <v>127</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="K96" t="s">
         <v>128</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-      <c r="K96" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="D97" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G97">
         <v>49</v>
@@ -2011,12 +2011,12 @@
         <v>0</v>
       </c>
       <c r="K97" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="D98" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G98">
         <v>98</v>
@@ -2025,12 +2025,12 @@
         <v>0</v>
       </c>
       <c r="K98" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="D99" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G99">
         <v>131</v>
@@ -2039,12 +2039,12 @@
         <v>0</v>
       </c>
       <c r="K99" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="D100" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G100">
         <v>164</v>
@@ -2053,12 +2053,12 @@
         <v>0</v>
       </c>
       <c r="K100" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="D101" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G101">
         <v>197</v>
@@ -2067,12 +2067,12 @@
         <v>0</v>
       </c>
       <c r="K101" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="D102" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G102">
         <v>230</v>
@@ -2081,12 +2081,12 @@
         <v>0</v>
       </c>
       <c r="K102" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="103" spans="1:11">
       <c r="D103" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G103">
         <v>254</v>
@@ -2095,12 +2095,12 @@
         <v>0</v>
       </c>
       <c r="K103" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="104" spans="1:11">
       <c r="D104" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G104">
         <v>279</v>
@@ -2109,12 +2109,12 @@
         <v>0</v>
       </c>
       <c r="K104" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="D105" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G105">
         <v>305</v>
@@ -2123,68 +2123,68 @@
         <v>0</v>
       </c>
       <c r="K105" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K108" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K109" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K110" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" t="s">
+        <v>144</v>
+      </c>
+      <c r="K111" t="s">
         <v>145</v>
-      </c>
-      <c r="K111" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" t="s">
+        <v>146</v>
+      </c>
+      <c r="K112" t="s">
         <v>147</v>
-      </c>
-      <c r="K112" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="113" spans="1:12">
       <c r="A113" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K113" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="115" spans="1:12">
       <c r="A115" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K115" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116" spans="1:12">
       <c r="A116" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -2196,17 +2196,17 @@
         <v>60</v>
       </c>
       <c r="K116" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="117" spans="1:12">
       <c r="A117" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="119" spans="1:12">
       <c r="D119" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -2218,12 +2218,12 @@
         <v>46</v>
       </c>
       <c r="K119" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="120" spans="1:12">
       <c r="D120" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -2235,7 +2235,7 @@
         <v>37</v>
       </c>
       <c r="K120" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -2274,6 +2274,54 @@
       </c>
       <c r="L122">
         <v>506</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="A123">
+        <v>0</v>
+      </c>
+      <c r="B123">
+        <v>37</v>
+      </c>
+      <c r="C123">
+        <v>74</v>
+      </c>
+      <c r="D123">
+        <v>111</v>
+      </c>
+      <c r="E123">
+        <v>148</v>
+      </c>
+      <c r="F123">
+        <v>185</v>
+      </c>
+      <c r="G123">
+        <v>222</v>
+      </c>
+      <c r="H123">
+        <v>259</v>
+      </c>
+      <c r="I123">
+        <v>296</v>
+      </c>
+      <c r="J123">
+        <v>333</v>
+      </c>
+      <c r="K123">
+        <v>370</v>
+      </c>
+      <c r="L123">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="C125">
+        <f>276+46</f>
+        <v>322</v>
+      </c>
+      <c r="D125">
+        <f>92+46</f>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/doc/image collage coordinates.xlsx
+++ b/doc/image collage coordinates.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="162">
   <si>
     <t>File name</t>
   </si>
@@ -93,33 +93,18 @@
     <t>25x25</t>
   </si>
   <si>
-    <t>map_animated_1.png</t>
-  </si>
-  <si>
     <t>190x216</t>
   </si>
   <si>
-    <t>map_animated_2.png</t>
-  </si>
-  <si>
     <t>146x210</t>
   </si>
   <si>
-    <t>map_animated_3.png</t>
-  </si>
-  <si>
     <t>160x242</t>
   </si>
   <si>
-    <t>map_animated_4.png</t>
-  </si>
-  <si>
     <t>31x247</t>
   </si>
   <si>
-    <t>map_animated_5.png</t>
-  </si>
-  <si>
     <t>bonfire</t>
   </si>
   <si>
@@ -514,6 +499,9 @@
   </si>
   <si>
     <t>game-powerup.png</t>
+  </si>
+  <si>
+    <t>map-bonfire-arrow-strips.png</t>
   </si>
 </sst>
 </file>
@@ -850,11 +838,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N125"/>
+  <dimension ref="A1:N112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -882,9 +870,26 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -893,15 +898,15 @@
         <v>0</v>
       </c>
       <c r="I3">
+        <v>74</v>
+      </c>
+      <c r="K3" t="s">
         <v>10</v>
-      </c>
-      <c r="K3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -910,15 +915,15 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -927,40 +932,40 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>52</v>
-      </c>
-      <c r="K6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>15</v>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>60</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="D8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -969,32 +974,32 @@
         <v>60</v>
       </c>
       <c r="K8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="D9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G9">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J9">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="H10">
         <v>120</v>
@@ -1006,44 +1011,38 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11">
-        <v>233</v>
-      </c>
-      <c r="H11">
-        <v>120</v>
-      </c>
-      <c r="J11">
-        <v>164</v>
-      </c>
-      <c r="K11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="J13">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>25</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K12" t="s">
         <v>24</v>
       </c>
     </row>
+    <row r="14" spans="1:11">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>95</v>
+      </c>
+      <c r="K14" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
       <c r="G15">
         <v>0</v>
       </c>
@@ -1051,219 +1050,234 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="K15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" t="s">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>80</v>
+      </c>
+      <c r="K16" t="s">
         <v>27</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>73</v>
-      </c>
-      <c r="K16" t="s">
+    </row>
+    <row r="17" spans="1:11">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>16</v>
+      </c>
+      <c r="K17" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>80</v>
-      </c>
-      <c r="K17" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>21</v>
+      </c>
+      <c r="K19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="D20" t="s">
         <v>31</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>16</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="G20">
+        <v>336</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>27</v>
+      </c>
+      <c r="K20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="s">
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="D21" t="s">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>69</v>
+      </c>
+      <c r="K22" t="s">
         <v>34</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>21</v>
-      </c>
-      <c r="K21" t="s">
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="D22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22">
-        <v>336</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>27</v>
-      </c>
-      <c r="K22" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>35</v>
+      </c>
+      <c r="K25" t="s">
         <v>38</v>
       </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>69</v>
-      </c>
-      <c r="K24" t="s">
+    </row>
+    <row r="26" spans="1:11">
+      <c r="D26" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" t="s">
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>35</v>
+      </c>
+      <c r="I26">
+        <v>19</v>
+      </c>
+      <c r="K26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
         <v>41</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="K25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="D28" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>35</v>
-      </c>
-      <c r="K28" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="D29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>40</v>
+      </c>
+      <c r="K29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="D30" t="s">
         <v>44</v>
       </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>35</v>
-      </c>
-      <c r="I29">
-        <v>19</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="G30">
+        <v>80</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" t="s">
+      <c r="D31" t="s">
         <v>46</v>
+      </c>
+      <c r="G31">
+        <v>120</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32">
+        <v>149</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="D33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
-      <c r="I33">
-        <v>40</v>
-      </c>
       <c r="K33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="D34" t="s">
-        <v>49</v>
-      </c>
-      <c r="G34">
-        <v>80</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="K34" t="s">
-        <v>50</v>
+      <c r="N34" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:14">
-      <c r="D35" t="s">
-        <v>51</v>
-      </c>
-      <c r="G35">
-        <v>120</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="K35" t="s">
+      <c r="A35" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1272,76 +1286,108 @@
         <v>53</v>
       </c>
       <c r="G36">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="D37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G37">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="N38" t="s">
-        <v>56</v>
+      <c r="D38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38">
+        <v>19</v>
+      </c>
+      <c r="H38">
+        <v>26</v>
+      </c>
+      <c r="K38" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" t="s">
-        <v>57</v>
+      <c r="D39" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39">
+        <v>19</v>
+      </c>
+      <c r="H39">
+        <v>50</v>
+      </c>
+      <c r="K39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="D40" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40">
+        <v>19</v>
+      </c>
+      <c r="H40">
+        <v>74</v>
+      </c>
+      <c r="K40" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="D41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="K41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="D42" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G42">
         <v>19</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="K42" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="D43" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G43">
         <v>19</v>
       </c>
       <c r="H43">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="K43" t="s">
         <v>64</v>
@@ -1349,99 +1395,76 @@
     </row>
     <row r="44" spans="1:14">
       <c r="D44" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G44">
         <v>19</v>
       </c>
       <c r="H44">
-        <v>50</v>
+        <v>172</v>
       </c>
       <c r="K44" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="D45" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G45">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H45">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="D46" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G46">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H46">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="K46" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="D47" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G47">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H47">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="K47" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="D48" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="G48">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H48">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="K48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="D49" t="s">
-        <v>71</v>
-      </c>
-      <c r="G49">
-        <v>19</v>
-      </c>
-      <c r="H49">
-        <v>172</v>
-      </c>
-      <c r="K49" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="D50" t="s">
-        <v>73</v>
-      </c>
-      <c r="G50">
-        <v>57</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="K50" t="s">
+      <c r="A50" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1450,10 +1473,10 @@
         <v>75</v>
       </c>
       <c r="G51">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="K51" t="s">
         <v>76</v>
@@ -1464,85 +1487,138 @@
         <v>77</v>
       </c>
       <c r="G52">
-        <v>57</v>
+        <v>150</v>
       </c>
       <c r="H52">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="K52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="D53" t="s">
-        <v>83</v>
-      </c>
-      <c r="G53">
-        <v>57</v>
-      </c>
-      <c r="H53">
-        <v>154</v>
-      </c>
-      <c r="K53" t="s">
-        <v>84</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>149</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>68</v>
+      </c>
+      <c r="J54">
+        <v>92</v>
+      </c>
+      <c r="K54" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>79</v>
+        <v>150</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>46</v>
+      </c>
+      <c r="J55">
+        <v>46</v>
+      </c>
+      <c r="K55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
+        <v>151</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>70</v>
+      </c>
+      <c r="J56">
+        <v>92</v>
+      </c>
+      <c r="K56" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="D57" t="s">
-        <v>80</v>
+      <c r="A57" t="s">
+        <v>152</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
         <v>0</v>
+      </c>
+      <c r="I57">
+        <v>46</v>
+      </c>
+      <c r="J57">
+        <v>46</v>
       </c>
       <c r="K57" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="D58" t="s">
+      <c r="A58" t="s">
+        <v>153</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>52</v>
+      </c>
+      <c r="J58">
+        <v>92</v>
+      </c>
+      <c r="K58" t="s">
         <v>82</v>
       </c>
-      <c r="G58">
-        <v>150</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="K58" t="s">
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>154</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>46</v>
+      </c>
+      <c r="J59">
+        <v>46</v>
+      </c>
+      <c r="K59" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" t="s">
-        <v>154</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>68</v>
-      </c>
-      <c r="J60">
-        <v>92</v>
-      </c>
-      <c r="K60" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>155</v>
+        <v>86</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -1550,19 +1626,16 @@
       <c r="H61">
         <v>0</v>
       </c>
-      <c r="I61">
-        <v>46</v>
-      </c>
       <c r="J61">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="K61" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -1570,19 +1643,16 @@
       <c r="H62">
         <v>0</v>
       </c>
-      <c r="I62">
-        <v>70</v>
-      </c>
       <c r="J62">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="K62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -1590,19 +1660,16 @@
       <c r="H63">
         <v>0</v>
       </c>
-      <c r="I63">
-        <v>46</v>
-      </c>
       <c r="J63">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="K63" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>158</v>
+        <v>90</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -1610,19 +1677,16 @@
       <c r="H64">
         <v>0</v>
       </c>
-      <c r="I64">
-        <v>52</v>
-      </c>
       <c r="J64">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="K64" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>159</v>
+        <v>92</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -1630,36 +1694,33 @@
       <c r="H65">
         <v>0</v>
       </c>
-      <c r="I65">
+      <c r="J65">
+        <v>30</v>
+      </c>
+      <c r="K65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" t="s">
+        <v>94</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="J66">
         <v>46</v>
       </c>
-      <c r="J65">
-        <v>46</v>
-      </c>
-      <c r="K65" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" t="s">
-        <v>91</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>58</v>
-      </c>
-      <c r="K67" t="s">
-        <v>89</v>
+      <c r="K66" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -1667,16 +1728,19 @@
       <c r="H68">
         <v>0</v>
       </c>
+      <c r="I68">
+        <v>46</v>
+      </c>
       <c r="J68">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="K68" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -1684,16 +1748,19 @@
       <c r="H69">
         <v>0</v>
       </c>
+      <c r="I69">
+        <v>46</v>
+      </c>
       <c r="J69">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="K69" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -1701,16 +1768,19 @@
       <c r="H70">
         <v>0</v>
       </c>
+      <c r="I70">
+        <v>46</v>
+      </c>
       <c r="J70">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="K70" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -1718,124 +1788,114 @@
       <c r="H71">
         <v>0</v>
       </c>
+      <c r="I71">
+        <v>46</v>
+      </c>
       <c r="J71">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="K71" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" t="s">
-        <v>99</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>46</v>
-      </c>
-      <c r="K72" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="D76" t="s">
         <v>100</v>
       </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>46</v>
-      </c>
-      <c r="J74">
-        <v>46</v>
-      </c>
-      <c r="K74" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" t="s">
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="K76" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="D77" t="s">
         <v>101</v>
       </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>46</v>
-      </c>
-      <c r="J75">
-        <v>46</v>
-      </c>
-      <c r="K75" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" t="s">
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>29</v>
+      </c>
+      <c r="K77" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="D78" t="s">
         <v>102</v>
       </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>46</v>
-      </c>
-      <c r="J76">
-        <v>46</v>
-      </c>
-      <c r="K76" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" t="s">
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>75</v>
+      </c>
+      <c r="K78" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="D79" t="s">
         <v>103</v>
       </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>46</v>
-      </c>
-      <c r="J77">
-        <v>46</v>
-      </c>
-      <c r="K77" t="s">
-        <v>86</v>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>117</v>
+      </c>
+      <c r="K79" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" t="s">
+      <c r="D80" t="s">
         <v>104</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>174</v>
+      </c>
+      <c r="K80" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="D81" t="s">
+        <v>105</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>201</v>
+      </c>
+      <c r="K81" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="D82" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="K82" t="s">
         <v>116</v>
@@ -1843,13 +1903,13 @@
     </row>
     <row r="83" spans="1:11">
       <c r="D83" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
       <c r="H83">
-        <v>29</v>
+        <v>269</v>
       </c>
       <c r="K83" t="s">
         <v>117</v>
@@ -1857,13 +1917,13 @@
     </row>
     <row r="84" spans="1:11">
       <c r="D84" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84">
-        <v>75</v>
+        <v>312</v>
       </c>
       <c r="K84" t="s">
         <v>118</v>
@@ -1871,13 +1931,13 @@
     </row>
     <row r="85" spans="1:11">
       <c r="D85" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85">
-        <v>117</v>
+        <v>367</v>
       </c>
       <c r="K85" t="s">
         <v>119</v>
@@ -1885,69 +1945,32 @@
     </row>
     <row r="86" spans="1:11">
       <c r="D86" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86">
-        <v>174</v>
+        <v>397</v>
       </c>
       <c r="K86" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
-      <c r="D87" t="s">
-        <v>110</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>201</v>
-      </c>
-      <c r="K87" t="s">
-        <v>120</v>
-      </c>
-    </row>
     <row r="88" spans="1:11">
-      <c r="D88" t="s">
-        <v>111</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>228</v>
-      </c>
-      <c r="K88" t="s">
+      <c r="A88" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
-      <c r="D89" t="s">
-        <v>112</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>269</v>
-      </c>
-      <c r="K89" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="D90" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90">
-        <v>312</v>
+        <v>0</v>
       </c>
       <c r="K90" t="s">
         <v>123</v>
@@ -1955,373 +1978,240 @@
     </row>
     <row r="91" spans="1:11">
       <c r="D91" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="H91">
-        <v>367</v>
+        <v>0</v>
       </c>
       <c r="K91" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="D92" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="H92">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="K92" t="s">
         <v>125</v>
       </c>
     </row>
+    <row r="93" spans="1:11">
+      <c r="D93" t="s">
+        <v>128</v>
+      </c>
+      <c r="G93">
+        <v>131</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="K93" t="s">
+        <v>125</v>
+      </c>
+    </row>
     <row r="94" spans="1:11">
-      <c r="A94" t="s">
-        <v>126</v>
+      <c r="D94" t="s">
+        <v>127</v>
+      </c>
+      <c r="G94">
+        <v>164</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="K94" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="D95" t="s">
+        <v>129</v>
+      </c>
+      <c r="G95">
+        <v>197</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="K95" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="D96" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="K96" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="D97" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="G97">
-        <v>49</v>
+        <v>254</v>
       </c>
       <c r="H97">
         <v>0</v>
       </c>
       <c r="K97" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="D98" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="G98">
-        <v>98</v>
+        <v>279</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
       <c r="K98" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="D99" t="s">
+        <v>63</v>
+      </c>
+      <c r="G99">
+        <v>305</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="K99" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" t="s">
+        <v>137</v>
+      </c>
+      <c r="K101" t="s">
         <v>133</v>
       </c>
-      <c r="G99">
-        <v>131</v>
-      </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
-      <c r="K99" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
-      <c r="D100" t="s">
-        <v>132</v>
-      </c>
-      <c r="G100">
-        <v>164</v>
-      </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-      <c r="K100" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
-      <c r="D101" t="s">
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" t="s">
+        <v>136</v>
+      </c>
+      <c r="K102" t="s">
         <v>134</v>
       </c>
-      <c r="G101">
-        <v>197</v>
-      </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
-      <c r="K101" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
-      <c r="D102" t="s">
-        <v>60</v>
-      </c>
-      <c r="G102">
-        <v>230</v>
-      </c>
-      <c r="H102">
-        <v>0</v>
-      </c>
-      <c r="K102" t="s">
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="103" spans="1:11">
-      <c r="D103" t="s">
-        <v>71</v>
-      </c>
-      <c r="G103">
-        <v>254</v>
-      </c>
-      <c r="H103">
-        <v>0</v>
-      </c>
       <c r="K103" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="104" spans="1:11">
-      <c r="D104" t="s">
-        <v>70</v>
-      </c>
-      <c r="G104">
-        <v>279</v>
-      </c>
-      <c r="H104">
-        <v>0</v>
+      <c r="A104" t="s">
+        <v>139</v>
       </c>
       <c r="K104" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="105" spans="1:11">
-      <c r="D105" t="s">
-        <v>68</v>
-      </c>
-      <c r="G105">
-        <v>305</v>
-      </c>
-      <c r="H105">
-        <v>0</v>
+      <c r="A105" t="s">
+        <v>141</v>
       </c>
       <c r="K105" t="s">
-        <v>137</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" t="s">
+        <v>144</v>
+      </c>
+      <c r="K106" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="K108" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" t="s">
-        <v>141</v>
+        <v>157</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>60</v>
       </c>
       <c r="K109" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" t="s">
-        <v>140</v>
-      </c>
-      <c r="K110" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="111" spans="1:11">
-      <c r="A111" t="s">
-        <v>144</v>
+      <c r="D111" t="s">
+        <v>158</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>46</v>
       </c>
       <c r="K111" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112" spans="1:11">
-      <c r="A112" t="s">
-        <v>146</v>
+      <c r="D112" t="s">
+        <v>159</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>21</v>
+      </c>
+      <c r="I112">
+        <v>37</v>
       </c>
       <c r="K112" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12">
-      <c r="A113" t="s">
-        <v>149</v>
-      </c>
-      <c r="K113" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12">
-      <c r="A115" t="s">
-        <v>161</v>
-      </c>
-      <c r="K115" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12">
-      <c r="A116" t="s">
-        <v>162</v>
-      </c>
-      <c r="G116">
-        <v>0</v>
-      </c>
-      <c r="H116">
-        <v>0</v>
-      </c>
-      <c r="I116">
-        <v>60</v>
-      </c>
-      <c r="K116" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12">
-      <c r="A117" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12">
-      <c r="D119" t="s">
-        <v>163</v>
-      </c>
-      <c r="G119">
-        <v>0</v>
-      </c>
-      <c r="H119">
-        <v>0</v>
-      </c>
-      <c r="I119">
-        <v>46</v>
-      </c>
-      <c r="K119" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12">
-      <c r="D120" t="s">
-        <v>164</v>
-      </c>
-      <c r="G120">
-        <v>0</v>
-      </c>
-      <c r="H120">
-        <v>21</v>
-      </c>
-      <c r="I120">
-        <v>37</v>
-      </c>
-      <c r="K120" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12">
-      <c r="A122">
-        <v>0</v>
-      </c>
-      <c r="B122">
-        <v>46</v>
-      </c>
-      <c r="C122">
-        <v>92</v>
-      </c>
-      <c r="D122">
-        <v>138</v>
-      </c>
-      <c r="E122">
-        <v>184</v>
-      </c>
-      <c r="F122">
-        <v>230</v>
-      </c>
-      <c r="G122">
-        <v>276</v>
-      </c>
-      <c r="H122">
-        <v>322</v>
-      </c>
-      <c r="I122">
-        <v>368</v>
-      </c>
-      <c r="J122">
-        <v>414</v>
-      </c>
-      <c r="K122">
-        <v>460</v>
-      </c>
-      <c r="L122">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12">
-      <c r="A123">
-        <v>0</v>
-      </c>
-      <c r="B123">
-        <v>37</v>
-      </c>
-      <c r="C123">
-        <v>74</v>
-      </c>
-      <c r="D123">
-        <v>111</v>
-      </c>
-      <c r="E123">
-        <v>148</v>
-      </c>
-      <c r="F123">
-        <v>185</v>
-      </c>
-      <c r="G123">
-        <v>222</v>
-      </c>
-      <c r="H123">
-        <v>259</v>
-      </c>
-      <c r="I123">
-        <v>296</v>
-      </c>
-      <c r="J123">
-        <v>333</v>
-      </c>
-      <c r="K123">
-        <v>370</v>
-      </c>
-      <c r="L123">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12">
-      <c r="C125">
-        <f>276+46</f>
-        <v>322</v>
-      </c>
-      <c r="D125">
-        <f>92+46</f>
-        <v>138</v>
       </c>
     </row>
   </sheetData>
